--- a/hw2/Book1.xlsx
+++ b/hw2/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeyu/Dropbox/eecs224/EECS224/hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A95469-B414-BE4F-8585-8C302A9AFD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62BF18F6-C279-F742-B13C-F9D49D8BE8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
+    <workbookView xWindow="3180" yWindow="1780" windowWidth="28040" windowHeight="14900" xr2:uid="{893C3AA3-A4A0-4F46-AC12-06B5B2AEDAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Joe</t>
   </si>
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44EEF89-191A-7A48-8643-E86E5BD9CFC5}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -406,7 +406,7 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>256</v>
       </c>
@@ -429,7 +429,7 @@
         <v>16384</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -455,7 +455,7 @@
         <v>61.99</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>41.576000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -507,7 +507,120 @@
         <v>38.893999999999998</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>512</v>
+      </c>
+      <c r="D6">
+        <v>1024</v>
+      </c>
+      <c r="E6">
+        <v>2048</v>
+      </c>
+      <c r="F6">
+        <v>4096</v>
+      </c>
+      <c r="G6">
+        <v>8192</v>
+      </c>
+      <c r="H6">
+        <v>16384</v>
+      </c>
+      <c r="I6">
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.373</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.095</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4.1040000000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>15.988</v>
+      </c>
+      <c r="H7" s="1">
+        <v>61.99</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.247</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10.925000000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>41.576000000000001</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.111</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3.028</v>
+      </c>
+      <c r="G9" s="1">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="H9" s="1">
+        <v>38.893999999999998</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H11" s="1">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>